--- a/Data/kategoriak.xlsx
+++ b/Data/kategoriak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Felina\SalaryFelina\FromLoginToNexonImportBonuses\Main\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Felina\PythonProjects\FromLoginToNexonImportBonuses\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5898C802-9585-4C9A-9B4B-0248289D5D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C44FBFF-C463-4315-B302-467A52DD5BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="17">
   <si>
     <t>kat</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>202412</t>
+  </si>
+  <si>
+    <t>BASE</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -524,16 +527,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>266800</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -547,19 +550,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>281175</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -573,19 +576,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>295550</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -605,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -631,10 +634,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -657,10 +660,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -677,16 +680,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -703,16 +706,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -729,16 +732,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>999</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -761,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -787,10 +790,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -813,10 +816,10 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D13">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -833,16 +836,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -859,16 +862,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -885,16 +888,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <v>999</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -917,10 +920,10 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -943,10 +946,10 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -969,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D19">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -989,19 +992,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E20">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1015,19 +1018,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D21">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -1041,19 +1044,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>90</v>
+        <v>999</v>
       </c>
       <c r="E22">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -1073,13 +1076,13 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E23">
-        <v>44000</v>
+        <v>7000</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -1099,13 +1102,13 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E24">
-        <v>54000</v>
+        <v>14000</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1125,13 +1128,13 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D25">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E25">
-        <v>68000</v>
+        <v>30000</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1145,19 +1148,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E26">
-        <v>7000</v>
+        <v>44000</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -1171,19 +1174,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>14000</v>
+        <v>54000</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -1197,19 +1200,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D28">
-        <v>90</v>
+        <v>999</v>
       </c>
       <c r="E28">
-        <v>30000</v>
+        <v>68000</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -1229,13 +1232,13 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E29">
-        <v>44000</v>
+        <v>7000</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -1255,13 +1258,13 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E30">
-        <v>54000</v>
+        <v>14000</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -1281,13 +1284,13 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E31">
-        <v>68000</v>
+        <v>30000</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -1301,19 +1304,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E32">
-        <v>7000</v>
+        <v>44000</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -1327,19 +1330,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D33">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E33">
-        <v>14000</v>
+        <v>54000</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -1353,19 +1356,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D34">
-        <v>90</v>
+        <v>999</v>
       </c>
       <c r="E34">
-        <v>30000</v>
+        <v>68000</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -1385,13 +1388,13 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D35">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E35">
-        <v>44000</v>
+        <v>7000</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -1411,13 +1414,13 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E36">
-        <v>54000</v>
+        <v>14000</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1437,13 +1440,13 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D37">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E37">
-        <v>68000</v>
+        <v>30000</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -1457,19 +1460,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D38">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1483,19 +1486,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D39">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E39">
-        <v>7000</v>
+        <v>54000</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -1509,19 +1512,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D40">
-        <v>90</v>
+        <v>999</v>
       </c>
       <c r="E40">
-        <v>15000</v>
+        <v>68000</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -1541,13 +1544,13 @@
         <v>13</v>
       </c>
       <c r="C41">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E41">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -1567,13 +1570,13 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E42">
-        <v>27000</v>
+        <v>7000</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -1593,13 +1596,13 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D43">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E43">
-        <v>34000</v>
+        <v>15000</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -1613,19 +1616,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D44">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -1639,19 +1642,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D45">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -1665,19 +1668,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D46">
-        <v>90</v>
+        <v>999</v>
       </c>
       <c r="E46">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -1697,13 +1700,13 @@
         <v>13</v>
       </c>
       <c r="C47">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D47">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E47">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
@@ -1723,13 +1726,13 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E48">
-        <v>27000</v>
+        <v>7000</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -1749,13 +1752,13 @@
         <v>13</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D49">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E49">
-        <v>34000</v>
+        <v>15000</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -1769,19 +1772,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D50">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -1795,19 +1798,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D51">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -1821,19 +1824,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D52">
-        <v>90</v>
+        <v>999</v>
       </c>
       <c r="E52">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -1853,13 +1856,13 @@
         <v>13</v>
       </c>
       <c r="C53">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D53">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E53">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -1879,13 +1882,13 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E54">
-        <v>27000</v>
+        <v>7000</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -1905,13 +1908,13 @@
         <v>13</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D55">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E55">
-        <v>34000</v>
+        <v>15000</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -1925,19 +1928,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D56">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -1951,19 +1954,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D57">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -1980,16 +1983,16 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D58">
-        <v>75</v>
+        <v>999</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -2006,7 +2009,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2015,7 +2018,7 @@
         <v>75</v>
       </c>
       <c r="E59">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2032,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2041,7 +2044,7 @@
         <v>75</v>
       </c>
       <c r="E60">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -2058,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2067,7 +2070,7 @@
         <v>75</v>
       </c>
       <c r="E61">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2084,7 +2087,7 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2093,7 +2096,7 @@
         <v>75</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -2110,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2119,7 +2122,7 @@
         <v>75</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F63" t="s">
         <v>14</v>
@@ -2136,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2145,7 +2148,7 @@
         <v>75</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -2154,6 +2157,84 @@
         <v>15</v>
       </c>
       <c r="H64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>75</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>75</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>75</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="b">
         <v>1</v>
       </c>
     </row>
